--- a/artifacts/pwy_xls/ccm_v0_to_mvacid_gen_4_tan_sample_1_n_samples_1000.xlsx
+++ b/artifacts/pwy_xls/ccm_v0_to_mvacid_gen_4_tan_sample_1_n_samples_1000.xlsx
@@ -498,16 +498,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.7.1.5_0: [] | R01335_reverse: [] | 3.7.1.2_08: [] | RXN-12096_reverse: [] | 3.7.1.2_05: [] | R00324: [] | ACETYLPYRUVATE-HYDROLASE-RXN_reverse: [] | 3.7.1.2_03: [] | </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -531,16 +539,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -564,16 +580,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -597,16 +621,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -630,16 +662,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -663,16 +703,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16948_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,16 +744,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -729,20 +785,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>B0LB00,B0LB01,C4NYZ3,G3X982,H9TB17,H9TB18,H9TB19,O54754,P48034,P80456,Q01772,Q06278,Q3HRQ2,Q3TYQ9,Q5FB27,Q5QE78,Q5QE79,Q5QE80,Q5SGK3,Q69R21,Q7G192,Q7G193,Q7XH05,Q852M1,Q852M2,Q960A1,Q9FV24,Q9FV25,Q9FYG4,Q9Z0U5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t xml:space="preserve">RXN-8094_reverse: [B0LB00, B0LB01, C4NYZ3, G3X982, H9TB17, H9TB18, H9TB19, O54754, P48034, P80456, Q01772, Q06278, Q3HRQ2, Q3TYQ9, Q5FB27, Q5QE78, Q5QE79, Q5QE80, Q5SGK3, Q69R21, Q7G192, Q7G193, Q7XH05, Q852M1, Q852M2, Q960A1, Q9FV24, Q9FV25, Q9FYG4, Q9Z0U5] | 1.2.3.1_110: [] | 1.2.3.1_111: [] | 1.2.3.1_090: [] | </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,16 +826,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.7.1.5_0: [] | R01335_reverse: [] | 3.7.1.2_08: [] | RXN-12096_reverse: [] | 3.7.1.2_05: [] | R00324: [] | ACETYLPYRUVATE-HYDROLASE-RXN_reverse: [] | 3.7.1.2_03: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -799,20 +867,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D5DET5;P19801,P36633,Q12556,Q59118,Q8JZQ5;O08590,O23349,O42890,O46406,O70423,O75106,P12807,P46881,P46883,P49250,P49252,P80695,Q07121,Q07123,Q16853,Q29437,Q43077,Q812C9,Q8H1H9,Q9P7F2,Q9TTK6</t>
+          <t xml:space="preserve">1.4.3.21_04: [] | R01469_reverse: [] | ETHANOLAMINE-OXIDASE-RXN: [D5DET5] | 1.4.3.8_2: [] | 1.4.3.4_28: [] | 1.4.3.21_45: [] | RXN-6381: [P19801, P36633, Q12556, Q59118, Q8JZQ5] | R03139_reverse: [] | RXN-12732: [] | RXN-9757: [] | 1.4.3.22_21: [] | 1.4.3.22_42: [] | 1.4.3.21_57: [] | 1.4.3.21_41: [] | 1.4.3.21_38: [] | 1.4.3.8_3: [] | R02529_reverse: [] | AMACETOXID-RXN: [O08590, O23349, O42890, O46406, O70423, O75106, P12807, P46881, P46883, P49250, P49252, P80695, Q07121, Q07123, Q16853, Q29437, Q43077, Q812C9, Q8H1H9, Q9P7F2, Q9TTK6] | 1.4.3.21_50: [] | </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,20 +908,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D5DET5;P19801,P36633,Q12556,Q59118,Q8JZQ5;O08590,O23349,O42890,O46406,O70423,O75106,P12807,P46881,P46883,P49250,P49252,P80695,Q07121,Q07123,Q16853,Q29437,Q43077,Q812C9,Q8H1H9,Q9P7F2,Q9TTK6</t>
+          <t xml:space="preserve">1.4.3.21_04: [] | R01469_reverse: [] | ETHANOLAMINE-OXIDASE-RXN: [D5DET5] | 1.4.3.8_2: [] | 1.4.3.4_28: [] | 1.4.3.21_45: [] | RXN-6381: [P19801, P36633, Q12556, Q59118, Q8JZQ5] | R03139_reverse: [] | RXN-12732: [] | RXN-9757: [] | 1.4.3.22_21: [] | 1.4.3.22_42: [] | 1.4.3.21_57: [] | 1.4.3.21_41: [] | 1.4.3.21_38: [] | 1.4.3.8_3: [] | R02529_reverse: [] | AMACETOXID-RXN: [O08590, O23349, O42890, O46406, O70423, O75106, P12807, P46881, P46883, P49250, P49252, P80695, Q07121, Q07123, Q16853, Q29437, Q43077, Q812C9, Q8H1H9, Q9P7F2, Q9TTK6] | 1.4.3.21_50: [] | </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -873,20 +949,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D5DET5;P19801,P36633,Q12556,Q59118,Q8JZQ5;O08590,O23349,O42890,O46406,O70423,O75106,P12807,P46881,P46883,P49250,P49252,P80695,Q07121,Q07123,Q16853,Q29437,Q43077,Q812C9,Q8H1H9,Q9P7F2,Q9TTK6</t>
+          <t xml:space="preserve">1.4.3.21_04: [] | R01469_reverse: [] | ETHANOLAMINE-OXIDASE-RXN: [D5DET5] | 1.4.3.8_2: [] | 1.4.3.4_28: [] | 1.4.3.21_45: [] | RXN-6381: [P19801, P36633, Q12556, Q59118, Q8JZQ5] | R03139_reverse: [] | RXN-12732: [] | RXN-9757: [] | 1.4.3.22_21: [] | 1.4.3.22_42: [] | 1.4.3.21_57: [] | 1.4.3.21_41: [] | 1.4.3.21_38: [] | 1.4.3.8_3: [] | R02529_reverse: [] | AMACETOXID-RXN: [O08590, O23349, O42890, O46406, O70423, O75106, P12807, P46881, P46883, P49250, P49252, P80695, Q07121, Q07123, Q16853, Q29437, Q43077, Q812C9, Q8H1H9, Q9P7F2, Q9TTK6] | 1.4.3.21_50: [] | </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +990,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -943,16 +1031,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -974,18 +1070,26 @@
       <c r="E16" t="n">
         <v>0.4563279946655446</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17511_reverse: [] | 1.2.3.1_109: [] | 1.2.3.15_09: [] | 1.17.3.2_40: [] | 1.2.3.1_107: [] | </t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1007,18 +1111,26 @@
       <c r="E17" t="n">
         <v>0.4450795100459867</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.1.1.15_11: [] | </t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,18 +1152,26 @@
       <c r="E18" t="n">
         <v>0.4406612518145999</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.4_26: [] | </t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,18 +1195,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -1112,18 +1236,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8;Q8VPT6,Q8VPT7</t>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | 4.1.99.11_07: [] | RXN-942_reverse: [Q8VPT6, Q8VPT7] | 4.1.99.11_08: [] | </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B3IUN8,P54987,Q0C8L3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t xml:space="preserve">R02243: [] | ACONITATE-DECARBOXYLASE-RXN_reverse: [B3IUN8, P54987, Q0C8L3] | </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
     </row>
@@ -1149,20 +1277,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A0A0D2YG05,A0KBH0,A0LCI7,A0PNQ1,A0QKL5,A0QSZ0,A1AUS2,A1KCN1,A1KP32,A1SMU5,A1TY14,A1UC78,A1V7J8,A1WVL3,A2S877,A2SLU8,A3M1Y2,A3MRS1,A3N4G4,A3NQ54,A4G1K0,A4JIS1,A4VRJ2,A4XZY6,A5CQM6,A5FVN0,A5GC94,A5U815,A5WAD0,A6SUC4,A6UYJ9,A6W3E8,A9AC42,A9I0E6,B0KN51,B0RS70,B0SHJ0,B0SQZ8,B0U3V7,B0V4S0,B0VL51,B1J2H5,B1K0G8,B1VF43,B1XW69,B1YPU9,B2AGC8,B2FMC1,B2HDS6,B2I3B6,B2I700,B2IY96,B2JJW9,B2T1N1,B2U7Y8,B3E278,B3PFK3,B3QM89,B3QZ51,B4E7Y5,B5EAS1,B5ELV1,B7H098,B7I4X4,B7J437,B7V3X6,B8GZZ0,B8ZUV9,B9M4M5,C1AHF8,C1D4Z8,C1DI67,C3K3L0,C5BLJ8,O27848,O32874,O60062,O68640,P08465,P0A5J9,P12917,P45131,P57714,P57715,P57884,P94891,P9WJY8,P9WJY9,Q02U23,Q04RK8,Q052B3,Q06736,Q0ABU4,Q0AIM3,Q0BAW3,Q0BVW2,Q0KF58,Q146X7,Q1BCR5,Q1BSM1,Q1IGC6,Q1LS47,Q1QQD3,Q20YI1,Q21EI0,Q2IS70,Q2KU63,Q2P3Z2,Q2RIW8,Q2RP84,Q2S8M0,Q2T284,Q2YCJ2,Q31EJ2,Q39BX2,Q39RX3,Q3A7G2,Q3AAW2,Q3ARA7,Q3B5A5,Q3BSK1,Q3IUE8,Q3JXB2,Q3K594,Q3M5Q6,Q3SV39,Q476W5,Q47JU2,Q47L17,Q48PA1,Q4FP51,Q4FUR4,Q4JTI5,Q4K4D3,Q4QJY8,Q4UVH1,Q4ZZ78,Q5F858,Q5FUF4,Q5H124,Q5NR05,Q5P4R1,Q5SK89,Q5UY71,Q5Z1C4,Q62F07,Q63YJ0,Q65U29,Q67NS3,Q6ADB9,Q6ANV2,Q6FEQ3,Q6N1G8,Q6NIZ3,Q722V6,Q72R95,Q73UB0,Q74AC8,Q7CWE8,Q7NZY3,Q7W0P6,Q7W3F8,Q7WES8,Q81ZZ5,Q87BG9,Q87V90,Q88CT3,Q89UL7,Q8F4I0,Q8FRT0,Q8KES7,Q8P8L2,Q8PK44,Q8Y3F3,Q8Y9D6,Q92E58,Q98G09,Q9AAS1,Q9JUT9,Q9JZQ5,Q9PAN0,Q9RA51,Q9RVZ8,Q9Y875,S0DUX2,W7N293;B2ZGJ1,P07668,P13222,P28329,P32738,P32756,Q03059,Q90YJ9</t>
+          <t xml:space="preserve">R01776: [] | HOMOSERINE-O-ACETYLTRANSFERASE-RXN_reverse: [A0A0D2YG05, A0KBH0, A0LCI7, A0PNQ1, A0QKL5, A0QSZ0, A1AUS2, A1KCN1, A1KP32, A1SMU5, A1TY14, A1UC78, A1V7J8, A1WVL3, A2S877, A2SLU8, A3M1Y2, A3MRS1, A3N4G4, A3NQ54, A4G1K0, A4JIS1, A4VRJ2, A4XZY6, A5CQM6, A5FVN0, A5GC94, A5U815, A5WAD0, A6SUC4, A6UYJ9, A6W3E8, A9AC42, A9I0E6, B0KN51, B0RS70, B0SHJ0, B0SQZ8, B0U3V7, B0V4S0, B0VL51, B1J2H5, B1K0G8, B1VF43, B1XW69, B1YPU9, B2AGC8, B2FMC1, B2HDS6, B2I3B6, B2I700, B2IY96, B2JJW9, B2T1N1, B2U7Y8, B3E278, B3PFK3, B3QM89, B3QZ51, B4E7Y5, B5EAS1, B5ELV1, B7H098, B7I4X4, B7J437, B7V3X6, B8GZZ0, B8ZUV9, B9M4M5, C1AHF8, C1D4Z8, C1DI67, C3K3L0, C5BLJ8, O27848, O32874, O60062, O68640, P08465, P0A5J9, P12917, P45131, P57714, P57715, P57884, P94891, P9WJY8, P9WJY9, Q02U23, Q04RK8, Q052B3, Q06736, Q0ABU4, Q0AIM3, Q0BAW3, Q0BVW2, Q0KF58, Q146X7, Q1BCR5, Q1BSM1, Q1IGC6, Q1LS47, Q1QQD3, Q20YI1, Q21EI0, Q2IS70, Q2KU63, Q2P3Z2, Q2RIW8, Q2RP84, Q2S8M0, Q2T284, Q2YCJ2, Q31EJ2, Q39BX2, Q39RX3, Q3A7G2, Q3AAW2, Q3ARA7, Q3B5A5, Q3BSK1, Q3IUE8, Q3JXB2, Q3K594, Q3M5Q6, Q3SV39, Q476W5, Q47JU2, Q47L17, Q48PA1, Q4FP51, Q4FUR4, Q4JTI5, Q4K4D3, Q4QJY8, Q4UVH1, Q4ZZ78, Q5F858, Q5FUF4, Q5H124, Q5NR05, Q5P4R1, Q5SK89, Q5UY71, Q5Z1C4, Q62F07, Q63YJ0, Q65U29, Q67NS3, Q6ADB9, Q6ANV2, Q6FEQ3, Q6N1G8, Q6NIZ3, Q722V6, Q72R95, Q73UB0, Q74AC8, Q7CWE8, Q7NZY3, Q7W0P6, Q7W3F8, Q7WES8, Q81ZZ5, Q87BG9, Q87V90, Q88CT3, Q89UL7, Q8F4I0, Q8FRT0, Q8KES7, Q8P8L2, Q8PK44, Q8Y3F3, Q8Y9D6, Q92E58, Q98G09, Q9AAS1, Q9JUT9, Q9JZQ5, Q9PAN0, Q9RA51, Q9RVZ8, Q9Y875, S0DUX2, W7N293] | 2.3.1.31_01: [] | R01023: [] | CHOLINE-O-ACETYLTRANSFERASE-RXN_reverse: [B2ZGJ1, P07668, P13222, P28329, P32738, P32756, Q03059, Q90YJ9] | 2.3.1.7_19: [] | 2.3.1.6_2: [] | 2.3.1.84_17: [] | 2.3.1.84_10: [] | </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1186,20 +1318,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A0A0D2YG05,A0KBH0,A0LCI7,A0PNQ1,A0QKL5,A0QSZ0,A1AUS2,A1KCN1,A1KP32,A1SMU5,A1TY14,A1UC78,A1V7J8,A1WVL3,A2S877,A2SLU8,A3M1Y2,A3MRS1,A3N4G4,A3NQ54,A4G1K0,A4JIS1,A4VRJ2,A4XZY6,A5CQM6,A5FVN0,A5GC94,A5U815,A5WAD0,A6SUC4,A6UYJ9,A6W3E8,A9AC42,A9I0E6,B0KN51,B0RS70,B0SHJ0,B0SQZ8,B0U3V7,B0V4S0,B0VL51,B1J2H5,B1K0G8,B1VF43,B1XW69,B1YPU9,B2AGC8,B2FMC1,B2HDS6,B2I3B6,B2I700,B2IY96,B2JJW9,B2T1N1,B2U7Y8,B3E278,B3PFK3,B3QM89,B3QZ51,B4E7Y5,B5EAS1,B5ELV1,B7H098,B7I4X4,B7J437,B7V3X6,B8GZZ0,B8ZUV9,B9M4M5,C1AHF8,C1D4Z8,C1DI67,C3K3L0,C5BLJ8,O27848,O32874,O60062,O68640,P08465,P0A5J9,P12917,P45131,P57714,P57715,P57884,P94891,P9WJY8,P9WJY9,Q02U23,Q04RK8,Q052B3,Q06736,Q0ABU4,Q0AIM3,Q0BAW3,Q0BVW2,Q0KF58,Q146X7,Q1BCR5,Q1BSM1,Q1IGC6,Q1LS47,Q1QQD3,Q20YI1,Q21EI0,Q2IS70,Q2KU63,Q2P3Z2,Q2RIW8,Q2RP84,Q2S8M0,Q2T284,Q2YCJ2,Q31EJ2,Q39BX2,Q39RX3,Q3A7G2,Q3AAW2,Q3ARA7,Q3B5A5,Q3BSK1,Q3IUE8,Q3JXB2,Q3K594,Q3M5Q6,Q3SV39,Q476W5,Q47JU2,Q47L17,Q48PA1,Q4FP51,Q4FUR4,Q4JTI5,Q4K4D3,Q4QJY8,Q4UVH1,Q4ZZ78,Q5F858,Q5FUF4,Q5H124,Q5NR05,Q5P4R1,Q5SK89,Q5UY71,Q5Z1C4,Q62F07,Q63YJ0,Q65U29,Q67NS3,Q6ADB9,Q6ANV2,Q6FEQ3,Q6N1G8,Q6NIZ3,Q722V6,Q72R95,Q73UB0,Q74AC8,Q7CWE8,Q7NZY3,Q7W0P6,Q7W3F8,Q7WES8,Q81ZZ5,Q87BG9,Q87V90,Q88CT3,Q89UL7,Q8F4I0,Q8FRT0,Q8KES7,Q8P8L2,Q8PK44,Q8Y3F3,Q8Y9D6,Q92E58,Q98G09,Q9AAS1,Q9JUT9,Q9JZQ5,Q9PAN0,Q9RA51,Q9RVZ8,Q9Y875,S0DUX2,W7N293;B2ZGJ1,P07668,P13222,P28329,P32738,P32756,Q03059,Q90YJ9</t>
+          <t xml:space="preserve">R01776: [] | HOMOSERINE-O-ACETYLTRANSFERASE-RXN_reverse: [A0A0D2YG05, A0KBH0, A0LCI7, A0PNQ1, A0QKL5, A0QSZ0, A1AUS2, A1KCN1, A1KP32, A1SMU5, A1TY14, A1UC78, A1V7J8, A1WVL3, A2S877, A2SLU8, A3M1Y2, A3MRS1, A3N4G4, A3NQ54, A4G1K0, A4JIS1, A4VRJ2, A4XZY6, A5CQM6, A5FVN0, A5GC94, A5U815, A5WAD0, A6SUC4, A6UYJ9, A6W3E8, A9AC42, A9I0E6, B0KN51, B0RS70, B0SHJ0, B0SQZ8, B0U3V7, B0V4S0, B0VL51, B1J2H5, B1K0G8, B1VF43, B1XW69, B1YPU9, B2AGC8, B2FMC1, B2HDS6, B2I3B6, B2I700, B2IY96, B2JJW9, B2T1N1, B2U7Y8, B3E278, B3PFK3, B3QM89, B3QZ51, B4E7Y5, B5EAS1, B5ELV1, B7H098, B7I4X4, B7J437, B7V3X6, B8GZZ0, B8ZUV9, B9M4M5, C1AHF8, C1D4Z8, C1DI67, C3K3L0, C5BLJ8, O27848, O32874, O60062, O68640, P08465, P0A5J9, P12917, P45131, P57714, P57715, P57884, P94891, P9WJY8, P9WJY9, Q02U23, Q04RK8, Q052B3, Q06736, Q0ABU4, Q0AIM3, Q0BAW3, Q0BVW2, Q0KF58, Q146X7, Q1BCR5, Q1BSM1, Q1IGC6, Q1LS47, Q1QQD3, Q20YI1, Q21EI0, Q2IS70, Q2KU63, Q2P3Z2, Q2RIW8, Q2RP84, Q2S8M0, Q2T284, Q2YCJ2, Q31EJ2, Q39BX2, Q39RX3, Q3A7G2, Q3AAW2, Q3ARA7, Q3B5A5, Q3BSK1, Q3IUE8, Q3JXB2, Q3K594, Q3M5Q6, Q3SV39, Q476W5, Q47JU2, Q47L17, Q48PA1, Q4FP51, Q4FUR4, Q4JTI5, Q4K4D3, Q4QJY8, Q4UVH1, Q4ZZ78, Q5F858, Q5FUF4, Q5H124, Q5NR05, Q5P4R1, Q5SK89, Q5UY71, Q5Z1C4, Q62F07, Q63YJ0, Q65U29, Q67NS3, Q6ADB9, Q6ANV2, Q6FEQ3, Q6N1G8, Q6NIZ3, Q722V6, Q72R95, Q73UB0, Q74AC8, Q7CWE8, Q7NZY3, Q7W0P6, Q7W3F8, Q7WES8, Q81ZZ5, Q87BG9, Q87V90, Q88CT3, Q89UL7, Q8F4I0, Q8FRT0, Q8KES7, Q8P8L2, Q8PK44, Q8Y3F3, Q8Y9D6, Q92E58, Q98G09, Q9AAS1, Q9JUT9, Q9JZQ5, Q9PAN0, Q9RA51, Q9RVZ8, Q9Y875, S0DUX2, W7N293] | 2.3.1.31_01: [] | R01023: [] | CHOLINE-O-ACETYLTRANSFERASE-RXN_reverse: [B2ZGJ1, P07668, P13222, P28329, P32738, P32756, Q03059, Q90YJ9] | 2.3.1.7_19: [] | 2.3.1.6_2: [] | 2.3.1.84_17: [] | 2.3.1.84_10: [] | </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1221,18 +1357,26 @@
       <c r="E23" t="n">
         <v>0.3613068530845365</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11989: [] | R09782_reverse: [] | 1.13.11.67_0: [] | 1.13.11.59_1: [] | </t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1256,20 +1400,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P06834</t>
+          <t xml:space="preserve">R01440_reverse: [] | FORMALDEHYDE-TRANSKETOLASE-RXN: [P06834] | 2.2.1.3_16: [] | 2.2.1.3_15: [] | </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1352,14 +1500,26 @@
       <c r="E2" t="n">
         <v>0.5490444824653508</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.3.3_11: [] | 1.4.3.2_22: [] | </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.1.1.10_44: [] | 4.3.1.17_15: [] | </t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1381,14 +1541,26 @@
       <c r="E3" t="n">
         <v>0.4359393417694606</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.42_063: [] | 2.6.1.42_064: [] | </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.1.1.10_44: [] | 4.3.1.17_15: [] | </t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>O87942,O87943,O87944,Q8VPT6,Q8VPT8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t xml:space="preserve">RXN-863_reverse: [O87942, O87943, O87944, Q8VPT6, Q8VPT8] | R05598: [] | 4.1.99.11_13: [] | </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
